--- a/docs/[TC] Database Connectivity.xlsx
+++ b/docs/[TC] Database Connectivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eclipse Workspace\PayStation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9322E685-9CFC-431F-9BE9-12EC8256418C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64554AF0-3D6C-4DC3-93F4-89A68953BA1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1620" windowWidth="16725" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="0" windowWidth="16725" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Test Case no.</t>
   </si>
@@ -398,6 +398,9 @@
       </rPr>
       <t xml:space="preserve"> = price.getParkingPrice()</t>
     </r>
+  </si>
+  <si>
+    <t>Retrieve price from control layer</t>
   </si>
 </sst>
 </file>
@@ -583,52 +586,52 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -918,7 +921,7 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,174 +933,165 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="2:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="15"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="17"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="14" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="17"/>
+    <row r="10" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="D3:E4"/>
     <mergeCell ref="F3:G4"/>
     <mergeCell ref="H3:H4"/>
@@ -1107,8 +1101,17 @@
     <mergeCell ref="F5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
